--- a/teaching/traditional_assets/database/data/brazil/brazil_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_precious_metals.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.602</v>
+        <v>-0.321</v>
       </c>
       <c r="G2">
-        <v>-86.11764705882352</v>
+        <v>-69.66666666666667</v>
       </c>
       <c r="H2">
-        <v>-86.11764705882352</v>
+        <v>-69.66666666666667</v>
       </c>
       <c r="I2">
-        <v>-99.52941176470588</v>
+        <v>-72.76190476190476</v>
       </c>
       <c r="J2">
-        <v>-99.52941176470588</v>
+        <v>-72.76190476190476</v>
       </c>
       <c r="K2">
-        <v>-2.242</v>
+        <v>-1.842</v>
       </c>
       <c r="L2">
-        <v>-131.8823529411765</v>
+        <v>-87.71428571428571</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,61 +633,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.073</v>
+        <v>0.284</v>
       </c>
       <c r="V2">
-        <v>0.009443725743855109</v>
+        <v>0.03761589403973509</v>
       </c>
       <c r="X2">
-        <v>0.1210896528733296</v>
+        <v>0.09303633707596873</v>
       </c>
       <c r="Z2">
-        <v>-0.01625239005736138</v>
+        <v>-0.01397205588822356</v>
       </c>
       <c r="AB2">
-        <v>0.1093394355095225</v>
+        <v>0.07666615179801008</v>
       </c>
       <c r="AD2">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="AG2">
-        <v>1.277</v>
+        <v>1.426</v>
       </c>
       <c r="AH2">
-        <v>0.1486784140969163</v>
+        <v>0.1846652267818575</v>
       </c>
       <c r="AI2">
-        <v>7.941176470588228</v>
+        <v>-42.74999999999996</v>
       </c>
       <c r="AJ2">
-        <v>0.1417786166315088</v>
+        <v>0.1588680926916221</v>
       </c>
       <c r="AK2">
-        <v>13.16494845360822</v>
+        <v>-4.401234567901233</v>
       </c>
       <c r="AL2">
-        <v>0.6850000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="AM2">
-        <v>0.6850000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="AN2">
-        <v>-0.8364312267657994</v>
+        <v>-1.176875430144529</v>
       </c>
       <c r="AO2">
-        <v>-2.47007299270073</v>
+        <v>-2.643598615916955</v>
       </c>
       <c r="AP2">
-        <v>-0.791201982651797</v>
+        <v>-0.981417756366139</v>
       </c>
       <c r="AQ2">
-        <v>-2.47007299270073</v>
+        <v>-2.643598615916955</v>
       </c>
     </row>
     <row r="3">
@@ -707,25 +707,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.602</v>
+        <v>-0.321</v>
       </c>
       <c r="G3">
-        <v>-135</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="H3">
-        <v>-135</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="I3">
-        <v>-161.25</v>
+        <v>-59.04761904761904</v>
       </c>
       <c r="J3">
-        <v>-161.25</v>
+        <v>-59.04761904761904</v>
       </c>
       <c r="K3">
-        <v>-1.84</v>
+        <v>-1.53</v>
       </c>
       <c r="L3">
-        <v>-230</v>
+        <v>-72.85714285714285</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,73 +749,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.073</v>
+        <v>0.284</v>
       </c>
       <c r="V3">
-        <v>0.04101123595505618</v>
+        <v>0.1339622641509434</v>
       </c>
       <c r="W3">
-        <v>0.7763713080168776</v>
+        <v>0.5503597122302158</v>
       </c>
       <c r="X3">
-        <v>0.1414858965736524</v>
+        <v>0.1106395911876437</v>
       </c>
       <c r="Y3">
-        <v>0.6348854114432252</v>
+        <v>0.4397201210425721</v>
       </c>
       <c r="Z3">
-        <v>-0.007648183556405353</v>
+        <v>-0.01397205588822356</v>
       </c>
       <c r="AA3">
-        <v>1.233269598470363</v>
+        <v>0.8250166333998671</v>
       </c>
       <c r="AB3">
-        <v>0.1179854618460382</v>
+        <v>0.0778992206317264</v>
       </c>
       <c r="AC3">
-        <v>1.115284136624325</v>
+        <v>0.7471174127681407</v>
       </c>
       <c r="AD3">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="AG3">
-        <v>1.277</v>
+        <v>1.426</v>
       </c>
       <c r="AH3">
-        <v>0.4313099041533547</v>
+        <v>0.4464751958224543</v>
       </c>
       <c r="AI3">
-        <v>7.941176470588228</v>
+        <v>-42.74999999999996</v>
       </c>
       <c r="AJ3">
-        <v>0.4177298004579653</v>
+        <v>0.4021432600112803</v>
       </c>
       <c r="AK3">
-        <v>13.16494845360822</v>
+        <v>-4.401234567901233</v>
       </c>
       <c r="AL3">
-        <v>0.6850000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="AM3">
-        <v>0.6850000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="AN3">
-        <v>-1.097560975609756</v>
+        <v>-1.436974789915966</v>
       </c>
       <c r="AO3">
-        <v>-1.883211678832117</v>
+        <v>-2.145328719723183</v>
       </c>
       <c r="AP3">
-        <v>-1.038211382113821</v>
+        <v>-1.198319327731092</v>
       </c>
       <c r="AQ3">
-        <v>-1.883211678832117</v>
+        <v>-2.145328719723183</v>
       </c>
     </row>
     <row r="4">
@@ -834,23 +834,8 @@
           <t>Precious Metals</t>
         </is>
       </c>
-      <c r="G4">
-        <v>-42.66666666666667</v>
-      </c>
-      <c r="H4">
-        <v>-42.66666666666667</v>
-      </c>
-      <c r="I4">
-        <v>-44.66666666666667</v>
-      </c>
-      <c r="J4">
-        <v>-44.66666666666667</v>
-      </c>
       <c r="K4">
-        <v>-0.402</v>
-      </c>
-      <c r="L4">
-        <v>-44.66666666666667</v>
+        <v>-0.312</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.1006934091730068</v>
+        <v>0.07543308296429375</v>
       </c>
       <c r="AB4">
-        <v>0.1006934091730068</v>
+        <v>0.07543308296429375</v>
       </c>
       <c r="AD4">
         <v>0</v>
